--- a/biology/Zoologie/Ancylocranium_somalicum/Ancylocranium_somalicum.xlsx
+++ b/biology/Zoologie/Ancylocranium_somalicum/Ancylocranium_somalicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancylocranium somalicum est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancylocranium somalicum est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Somalie et en Éthiopie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Somalie et en Éthiopie. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles apodes.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 mai 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 mai 2014) :
 Ancylocranium somalicum parkeri Gans &amp; Kochva, 1966 du Nord-Ouest de la Somalie
 Ancylocranium somalicum somalicum (Scortecci, 1930)</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, la Somalie.
 </t>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gans &amp; Kochva, 1966 : A systematic review of Ancylocranium (Amphisbaenia: Reptilia). Notes on amphisbaenids 22. Israel Journal of Zoology, vol. 14, p. 87-121.
 Scortecci, 1930 : Contributo alla conoscenza dei rettili e degli anfibi della Somalia, dell'Eritrea e dell'Abissinia. Bollettino dei Musei di zoologia ed anatomia comparata della R. Università di Torino, sér. 3, vol. 41, no 10, p. 1-26.</t>
